--- a/GEOC/Justificaciones PERSISTENCIA, RF, RNF y CU.xlsx
+++ b/GEOC/Justificaciones PERSISTENCIA, RF, RNF y CU.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>Requerimientos Funcionales y No Funcionales</t>
   </si>
@@ -79,9 +79,6 @@
     <t>no funcional</t>
   </si>
   <si>
-    <t>seleccionar producto</t>
-  </si>
-  <si>
     <t>7, 10, 15, 16</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">calculo de cantidades a solicitar, estimado de ventas y calculo de stock de las combo ofertas </t>
-  </si>
-  <si>
-    <t>generar orden de compra</t>
   </si>
   <si>
     <t>6, 7, 8, 11, 13</t>
@@ -199,12 +193,6 @@
     <t>Creamos una clase para poder persistirla luego</t>
   </si>
   <si>
-    <t>Productos</t>
-  </si>
-  <si>
-    <t>Agregar producto</t>
-  </si>
-  <si>
     <t>Crear Orden de Compra</t>
   </si>
   <si>
@@ -220,17 +208,23 @@
     <t xml:space="preserve">en las ventas especiales se guarda el registro del pedido </t>
   </si>
   <si>
-    <t>1, 3</t>
+    <t>Lista de productos y Añadir/Quitar producto</t>
   </si>
   <si>
-    <t>1, 2, 4</t>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>seleccionar producto y ver lista</t>
+  </si>
+  <si>
+    <t>generar orden de compra y ver lista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +293,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -320,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -757,11 +764,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -769,15 +957,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,19 +1052,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,16 +1079,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,6 +1090,73 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1148,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1169,7 +1393,7 @@
     <col min="14" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1199,23 +1423,23 @@
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1233,33 +1457,33 @@
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="60" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="4"/>
@@ -1279,34 +1503,34 @@
     </row>
     <row r="4" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="43">
         <v>1</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="56" t="s">
-        <v>57</v>
+      <c r="I4" s="11"/>
+      <c r="J4" s="61" t="s">
+        <v>60</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="9">
         <v>1</v>
       </c>
-      <c r="L4" s="58" t="s">
-        <v>62</v>
+      <c r="L4" s="62">
+        <v>2</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1325,35 +1549,35 @@
     </row>
     <row r="5" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="44">
         <f t="shared" ref="D5:D13" si="0">D4+1</f>
         <v>2</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="13">
+        <v>2</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="16">
+      <c r="I5" s="11"/>
+      <c r="J5" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="17">
         <v>2</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="16">
-        <v>2</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>64</v>
+      <c r="L5" s="64" t="s">
+        <v>61</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1372,35 +1596,35 @@
     </row>
     <row r="6" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="61" t="s">
-        <v>63</v>
+      <c r="B6" s="48" t="s">
+        <v>59</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="44">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
-        <v>20</v>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>19</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="13">
         <v>3</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="14">
         <v>10</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="57" t="s">
-        <v>59</v>
+      <c r="I6" s="11"/>
+      <c r="J6" s="63" t="s">
+        <v>56</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="17">
         <v>3</v>
       </c>
-      <c r="L6" s="46" t="s">
-        <v>65</v>
+      <c r="L6" s="64">
+        <v>3</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1419,35 +1643,35 @@
     </row>
     <row r="7" spans="1:26" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="52" t="s">
-        <v>21</v>
+      <c r="B7" s="42" t="s">
+        <v>20</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="44">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="15" t="s">
-        <v>22</v>
+      <c r="E7" s="37"/>
+      <c r="F7" s="45" t="s">
+        <v>63</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="13">
         <v>4</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>23</v>
+      <c r="H7" s="14" t="s">
+        <v>21</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="57" t="s">
-        <v>60</v>
+      <c r="I7" s="11"/>
+      <c r="J7" s="63" t="s">
+        <v>57</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="56">
         <v>4</v>
       </c>
-      <c r="L7" s="46" t="s">
-        <v>62</v>
+      <c r="L7" s="65" t="s">
+        <v>58</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1466,30 +1690,24 @@
     </row>
     <row r="8" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="52" t="s">
-        <v>24</v>
+      <c r="B8" s="42" t="s">
+        <v>22</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="44">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="20">
-        <v>5</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>62</v>
-      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1507,24 +1725,24 @@
     </row>
     <row r="9" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="52" t="s">
-        <v>25</v>
+      <c r="B9" s="42" t="s">
+        <v>23</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="18"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="69"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1542,24 +1760,24 @@
     </row>
     <row r="10" spans="1:26" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="52" t="s">
-        <v>26</v>
+      <c r="B10" s="42" t="s">
+        <v>24</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="18"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="70"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1577,24 +1795,24 @@
     </row>
     <row r="11" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="52" t="s">
-        <v>27</v>
+      <c r="B11" s="42" t="s">
+        <v>25</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="18"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1612,24 +1830,24 @@
     </row>
     <row r="12" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="52" t="s">
-        <v>28</v>
+      <c r="B12" s="42" t="s">
+        <v>26</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="44">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="18"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="70"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1647,24 +1865,24 @@
     </row>
     <row r="13" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="52" t="s">
-        <v>29</v>
+      <c r="B13" s="42" t="s">
+        <v>27</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="18"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1682,23 +1900,23 @@
     </row>
     <row r="14" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="52" t="s">
-        <v>30</v>
+      <c r="B14" s="42" t="s">
+        <v>28</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="43">
         <v>11</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="18"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1716,24 +1934,24 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="52" t="s">
-        <v>31</v>
+      <c r="B15" s="42" t="s">
+        <v>29</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="44">
         <f t="shared" ref="D15:D16" si="1">D14+1</f>
         <v>12</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="18"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1751,24 +1969,24 @@
     </row>
     <row r="16" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="52" t="s">
-        <v>32</v>
+      <c r="B16" s="42" t="s">
+        <v>30</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="44">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="18"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="70"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1786,23 +2004,23 @@
     </row>
     <row r="17" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="52" t="s">
-        <v>33</v>
+      <c r="B17" s="42" t="s">
+        <v>31</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="43">
         <v>14</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="18"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="70"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1820,23 +2038,23 @@
     </row>
     <row r="18" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="52" t="s">
-        <v>34</v>
+      <c r="B18" s="42" t="s">
+        <v>32</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="43">
         <v>15</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="18"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="70"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1854,23 +2072,23 @@
     </row>
     <row r="19" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="52" t="s">
-        <v>35</v>
+      <c r="B19" s="42" t="s">
+        <v>33</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="43">
         <v>16</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1888,13 +2106,13 @@
     </row>
     <row r="20" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="59" t="s">
-        <v>55</v>
+      <c r="B20" s="46" t="s">
+        <v>53</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="75">
         <v>17</v>
       </c>
       <c r="E20" s="1"/>
@@ -29288,7 +29506,7 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29324,229 +29542,229 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+    </row>
+    <row r="3" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="45" t="s">
+      <c r="C3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-    </row>
-    <row r="3" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="H3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:26" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
+      <c r="D4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="30">
+        <v>2</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="32" t="s">
+    </row>
+    <row r="5" spans="1:26" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="33">
-        <v>2</v>
+      <c r="C5" s="27" t="s">
+        <v>43</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="D5" s="32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>45</v>
+      <c r="F5" s="11"/>
+      <c r="G5" s="30">
+        <v>5</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="H5" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="17" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="30">
+        <v>9</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="33">
-        <v>5</v>
+    </row>
+    <row r="7" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="16"/>
+      <c r="C7" s="33"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="30">
+        <v>12</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>51</v>
+      <c r="H7" s="31" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
-        <v>53</v>
+    <row r="8" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="16"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="34">
+        <v>14</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>45</v>
+      <c r="H8" s="31" t="s">
+        <v>49</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>53</v>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="16"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="16">
+        <v>17</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="H9" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="33">
-        <v>9</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="19"/>
-      <c r="C7" s="36"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="33">
-        <v>12</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="37">
-        <v>14</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="19">
-        <v>17</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="19"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="18"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="21"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="23"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
